--- a/Optimizer/Optimizer.Runner/Input/Przewodniczacy.xlsx
+++ b/Optimizer/Optimizer.Runner/Input/Przewodniczacy.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PK_SEM_8\MO\projekt-repo\Optimizer\Optimizer.Runner\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B485F1-B975-4A8B-95B5-66F38B4A02B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEED0090-B15B-4DCB-8A87-81358FF996BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="3180" windowWidth="9840" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -100,7 +111,17 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="lightHorizontal">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -119,7 +140,7 @@
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{7C5F3AD9-7CA2-497A-B47C-5DC21D5DEC39}" name="Przewodniczący"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -388,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -440,6 +461,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
